--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.45493413961874</v>
+        <v>104.1986512027595</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1867226616281</v>
+        <v>142.569191495612</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2889021129036</v>
+        <v>128.9625879564263</v>
       </c>
       <c r="AD2" t="n">
-        <v>83454.93413961874</v>
+        <v>104198.6512027595</v>
       </c>
       <c r="AE2" t="n">
-        <v>114186.7226616281</v>
+        <v>142569.191495612</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607911362562466e-06</v>
+        <v>7.789902785468585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.398148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>103288.9021129036</v>
+        <v>128962.5879564263</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.86439440133822</v>
+        <v>101.608111464479</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.6422319051672</v>
+        <v>139.0247007391511</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.0826925795141</v>
+        <v>125.7563784230368</v>
       </c>
       <c r="AD3" t="n">
-        <v>80864.39440133821</v>
+        <v>101608.111464479</v>
       </c>
       <c r="AE3" t="n">
-        <v>110642.2319051672</v>
+        <v>139024.7007391511</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.81084243659957e-06</v>
+        <v>8.132967834797283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.212962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>100082.6925795141</v>
+        <v>125756.3784230368</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.89311147745215</v>
+        <v>97.98899581915158</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.5767915249571</v>
+        <v>134.0728670491029</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.40525212330863</v>
+        <v>121.277140790423</v>
       </c>
       <c r="AD2" t="n">
-        <v>77893.11147745216</v>
+        <v>97988.99581915158</v>
       </c>
       <c r="AE2" t="n">
-        <v>106576.7915249571</v>
+        <v>134072.8670491028</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.895037559257372e-06</v>
+        <v>8.477182026413913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.282407407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>96405.25212330863</v>
+        <v>121277.140790423</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.06958984849494</v>
+        <v>102.3004105824765</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.0277217192082</v>
+        <v>139.9719349344763</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.0496374007781</v>
+        <v>126.613209916212</v>
       </c>
       <c r="AD2" t="n">
-        <v>84069.58984849494</v>
+        <v>102300.4105824765</v>
       </c>
       <c r="AE2" t="n">
-        <v>115027.7217192082</v>
+        <v>139971.9349344763</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.602987528668437e-06</v>
+        <v>8.70984291983605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.081018518518518</v>
       </c>
       <c r="AH2" t="n">
-        <v>104049.6374007781</v>
+        <v>126613.209916212</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.89353224546872</v>
+        <v>103.2980837278141</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4726348876633</v>
+        <v>141.3369953461593</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.69279043525675</v>
+        <v>127.8479908780788</v>
       </c>
       <c r="AD2" t="n">
-        <v>74893.53224546873</v>
+        <v>103298.0837278141</v>
       </c>
       <c r="AE2" t="n">
-        <v>102472.6348876633</v>
+        <v>141336.9953461593</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.84158283771675e-06</v>
+        <v>8.82031246063193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.621913580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>92692.79043525676</v>
+        <v>127847.9908780788</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.75869471380393</v>
+        <v>112.1666446150056</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.3388295139702</v>
+        <v>153.4713516053016</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.1401763112689</v>
+        <v>138.8242612065284</v>
       </c>
       <c r="AD2" t="n">
-        <v>85758.69471380394</v>
+        <v>112166.6446150056</v>
       </c>
       <c r="AE2" t="n">
-        <v>117338.8295139702</v>
+        <v>153471.3516053016</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.236967523174817e-06</v>
+        <v>8.303091192505175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>106140.176311269</v>
+        <v>138824.2612065284</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.14176207419267</v>
+        <v>99.40792370820397</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.2852503579931</v>
+        <v>136.0143067855838</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.95065804315725</v>
+        <v>123.0332922432826</v>
       </c>
       <c r="AD2" t="n">
-        <v>79141.76207419267</v>
+        <v>99407.92370820396</v>
       </c>
       <c r="AE2" t="n">
-        <v>108285.2503579931</v>
+        <v>136014.3067855838</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837497728738104e-06</v>
+        <v>8.322823932598632e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.293981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>97950.65804315725</v>
+        <v>123033.2922432826</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.52134907254693</v>
+        <v>99.78751070655824</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.8046180353377</v>
+        <v>136.5336744629284</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.4204579983133</v>
+        <v>123.5030921984387</v>
       </c>
       <c r="AD3" t="n">
-        <v>79521.34907254693</v>
+        <v>99787.51070655824</v>
       </c>
       <c r="AE3" t="n">
-        <v>108804.6180353377</v>
+        <v>136533.6744629283</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.821291435635939e-06</v>
+        <v>8.294941309876534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.309413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>98420.4579983133</v>
+        <v>123503.0921984387</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.85559869795651</v>
+        <v>122.6227738006994</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.5221031059325</v>
+        <v>167.7778888490241</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.8743795814774</v>
+        <v>151.7654026150657</v>
       </c>
       <c r="AD2" t="n">
-        <v>96855.59869795651</v>
+        <v>122622.7738006994</v>
       </c>
       <c r="AE2" t="n">
-        <v>132522.1031059325</v>
+        <v>167777.8888490241</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.933444577806121e-06</v>
+        <v>7.885220488704161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>119874.3795814774</v>
+        <v>151765.4026150657</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.0855379579837</v>
+        <v>95.62879010059277</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.1035896911061</v>
+        <v>130.8435294600447</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.16808920131894</v>
+        <v>118.3560066484598</v>
       </c>
       <c r="AD2" t="n">
-        <v>76085.5379579837</v>
+        <v>95628.79010059277</v>
       </c>
       <c r="AE2" t="n">
-        <v>104103.5896911061</v>
+        <v>130843.5294600447</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.913652539531261e-06</v>
+        <v>8.702443765797122e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.39429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>94168.08920131893</v>
+        <v>118356.0066484598</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.35892044356432</v>
+        <v>97.27805248519475</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.845887785547</v>
+        <v>133.1001230149773</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.74410481095771</v>
+        <v>120.3972340816592</v>
       </c>
       <c r="AD2" t="n">
-        <v>77358.92044356432</v>
+        <v>97278.05248519476</v>
       </c>
       <c r="AE2" t="n">
-        <v>105845.887785547</v>
+        <v>133100.1230149773</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.897765838800106e-06</v>
+        <v>8.541275953851209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.320987654320987</v>
       </c>
       <c r="AH2" t="n">
-        <v>95744.10481095771</v>
+        <v>120397.2340816592</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.63750394526312</v>
+        <v>102.227103246941</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.7000344903506</v>
+        <v>139.8716326039052</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.0395399706032</v>
+        <v>126.5224802992955</v>
       </c>
       <c r="AD2" t="n">
-        <v>81637.50394526312</v>
+        <v>102227.103246941</v>
       </c>
       <c r="AE2" t="n">
-        <v>111700.0344903506</v>
+        <v>139871.6326039052</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.710284697333686e-06</v>
+        <v>8.007171804854577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.33641975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>101039.5399706032</v>
+        <v>126522.4802992955</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.07570814449704</v>
+        <v>100.6653074461749</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.5631165741756</v>
+        <v>137.7347146877303</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.1065665011642</v>
+        <v>124.5895068298564</v>
       </c>
       <c r="AD3" t="n">
-        <v>80075.70814449704</v>
+        <v>100665.3074461749</v>
       </c>
       <c r="AE3" t="n">
-        <v>109563.1165741756</v>
+        <v>137734.7146877303</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.833948397536787e-06</v>
+        <v>8.217391899217618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.224537037037036</v>
       </c>
       <c r="AH3" t="n">
-        <v>99106.5665011642</v>
+        <v>124589.5068298564</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.21149819669913</v>
+        <v>94.51313177357846</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.9076899298042</v>
+        <v>129.3170365176529</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.0863244347795</v>
+        <v>116.975200050043</v>
       </c>
       <c r="AD2" t="n">
-        <v>75211.49819669912</v>
+        <v>94513.13177357847</v>
       </c>
       <c r="AE2" t="n">
-        <v>102907.6899298042</v>
+        <v>129317.0365176529</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.88092648918802e-06</v>
+        <v>8.801465482169588e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.525462962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>93086.3244347795</v>
+        <v>116975.200050043</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.56200218059173</v>
+        <v>102.2318228244485</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.0190208268246</v>
+        <v>139.8780901380641</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.28246866373304</v>
+        <v>126.5283215354574</v>
       </c>
       <c r="AD2" t="n">
-        <v>74562.00218059173</v>
+        <v>102231.8228244485</v>
       </c>
       <c r="AE2" t="n">
-        <v>102019.0208268246</v>
+        <v>139878.0901380641</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.717115740803543e-06</v>
+        <v>8.800630180549078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.880401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>92282.46866373305</v>
+        <v>126528.3215354574</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.44113207815687</v>
+        <v>111.1710078170424</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.5360821891177</v>
+        <v>152.1090774139337</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.509480660928</v>
+        <v>137.5920005520203</v>
       </c>
       <c r="AD2" t="n">
-        <v>84441.13207815686</v>
+        <v>111171.0078170424</v>
       </c>
       <c r="AE2" t="n">
-        <v>115536.0821891177</v>
+        <v>152109.0774139337</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458571932392821e-06</v>
+        <v>8.573999165924088e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.339506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>104509.480660928</v>
+        <v>137592.0005520203</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.2180957629233</v>
+        <v>143.6557705627412</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.8052611019757</v>
+        <v>196.5561629291638</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.4126186389576</v>
+        <v>177.7971186075673</v>
       </c>
       <c r="AD2" t="n">
-        <v>110218.0957629233</v>
+        <v>143655.7705627412</v>
       </c>
       <c r="AE2" t="n">
-        <v>150805.2611019757</v>
+        <v>196556.1629291638</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.469680618666583e-06</v>
+        <v>7.156560889407154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.36496913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>136412.6186389576</v>
+        <v>177797.1186075673</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.78894851257023</v>
+        <v>96.52414910692416</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0660270441744</v>
+        <v>132.0685991529583</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.03867288420003</v>
+        <v>119.4641574092782</v>
       </c>
       <c r="AD2" t="n">
-        <v>76788.94851257023</v>
+        <v>96524.14910692416</v>
       </c>
       <c r="AE2" t="n">
-        <v>105066.0270441744</v>
+        <v>132068.5991529583</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.903508401585108e-06</v>
+        <v>8.615270829085332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>95038.67288420003</v>
+        <v>119464.1574092782</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>79.60539570863308</v>
+        <v>100.0359579074433</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.9196143507066</v>
+        <v>136.8736108838961</v>
       </c>
       <c r="AC2" t="n">
-        <v>98.52447922674179</v>
+        <v>123.8105855644931</v>
       </c>
       <c r="AD2" t="n">
-        <v>79605.39570863308</v>
+        <v>100035.9579074433</v>
       </c>
       <c r="AE2" t="n">
-        <v>108919.6143507066</v>
+        <v>136873.6108838961</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.830279114845223e-06</v>
+        <v>8.259238988509734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.263117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>98524.47922674179</v>
+        <v>123810.5855644931</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.18229142353489</v>
+        <v>98.61285362234514</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.9724602849061</v>
+        <v>134.9264568180957</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.76315881213282</v>
+        <v>122.0492651498842</v>
       </c>
       <c r="AD3" t="n">
-        <v>78182.29142353489</v>
+        <v>98612.85362234514</v>
       </c>
       <c r="AE3" t="n">
-        <v>106972.4602849061</v>
+        <v>134926.4568180957</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.947658564442914e-06</v>
+        <v>8.459944766274738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.162808641975309</v>
       </c>
       <c r="AH3" t="n">
-        <v>96763.15881213281</v>
+        <v>122049.2651498842</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.0997068248504</v>
+        <v>178.789349158586</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.9541114067527</v>
+        <v>244.6274751480698</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.9205962129064</v>
+        <v>221.2805722568268</v>
       </c>
       <c r="AD2" t="n">
-        <v>138099.7068248503</v>
+        <v>178789.3491585861</v>
       </c>
       <c r="AE2" t="n">
-        <v>188954.1114067527</v>
+        <v>244627.4751480698</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741818105890279e-06</v>
+        <v>5.876979056189387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.652777777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>170920.5962129064</v>
+        <v>221280.5722568268</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.91335304753311</v>
+        <v>102.9627441181993</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.4997545834798</v>
+        <v>140.8781688981451</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.71732186536731</v>
+        <v>127.432954182296</v>
       </c>
       <c r="AD2" t="n">
-        <v>74913.35304753311</v>
+        <v>102962.7441181993</v>
       </c>
       <c r="AE2" t="n">
-        <v>102499.7545834798</v>
+        <v>140878.1688981451</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772049650313122e-06</v>
+        <v>8.79217953486869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.753086419753086</v>
       </c>
       <c r="AH2" t="n">
-        <v>92717.32186536731</v>
+        <v>127432.954182296</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.69631395239252</v>
+        <v>95.03859108817643</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.5710362353052</v>
+        <v>130.0359931335144</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.68636189989608</v>
+        <v>117.6255404555488</v>
       </c>
       <c r="AD2" t="n">
-        <v>75696.31395239252</v>
+        <v>95038.59108817643</v>
       </c>
       <c r="AE2" t="n">
-        <v>103571.0362353052</v>
+        <v>130035.9931335143</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892687165960608e-06</v>
+        <v>8.740428562091865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.463734567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>93686.36189989609</v>
+        <v>117625.5404555488</v>
       </c>
     </row>
   </sheetData>
